--- a/data/Среднедушевые денежные доходы.xlsx
+++ b/data/Среднедушевые денежные доходы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamillaparhomenko/Desktop/ДИПЛОМ ЛЮБИМЫЙ/Итог данные/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigran/Projects/microfinance_market/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA783A3-3241-5C47-B3DC-550E97D9FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DE5F4B-2EA0-404B-8145-27B5375C679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1500" windowWidth="26500" windowHeight="15840" xr2:uid="{F9406C53-4267-C64A-A84F-E8297D0340E1}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Среднедушевые денежные доходы населения ( руб.)</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE90905-32E1-7C47-892C-4E5F312A2DD7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -471,7 +472,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="42" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
